--- a/Mureedain Names.xlsx
+++ b/Mureedain Names.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9070" uniqueCount="4537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9071" uniqueCount="4538">
   <si>
     <t>Name</t>
   </si>
@@ -13643,6 +13643,9 @@
   </si>
   <si>
     <t>03335760607</t>
+  </si>
+  <si>
+    <t>zain</t>
   </si>
 </sst>
 </file>
@@ -29128,8 +29131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="D267" sqref="D267"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="A355" sqref="A355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34182,6 +34185,11 @@
       </c>
       <c r="F354" s="8">
         <v>3365304169</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>4537</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.35">

--- a/Mureedain Names.xlsx
+++ b/Mureedain Names.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9071" uniqueCount="4538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9070" uniqueCount="4537">
   <si>
     <t>Name</t>
   </si>
@@ -13643,9 +13643,6 @@
   </si>
   <si>
     <t>03335760607</t>
-  </si>
-  <si>
-    <t>zain</t>
   </si>
 </sst>
 </file>
@@ -34187,11 +34184,6 @@
         <v>3365304169</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A355" t="s">
-        <v>4537</v>
-      </c>
-    </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="18"/>
     </row>

--- a/Mureedain Names.xlsx
+++ b/Mureedain Names.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9070" uniqueCount="4537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9071" uniqueCount="4538">
   <si>
     <t>Name</t>
   </si>
@@ -13643,6 +13643,9 @@
   </si>
   <si>
     <t>03335760607</t>
+  </si>
+  <si>
+    <t>zain</t>
   </si>
 </sst>
 </file>
@@ -34184,6 +34187,11 @@
         <v>3365304169</v>
       </c>
     </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>4537</v>
+      </c>
+    </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="18"/>
     </row>

--- a/Mureedain Names.xlsx
+++ b/Mureedain Names.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9071" uniqueCount="4538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9070" uniqueCount="4537">
   <si>
     <t>Name</t>
   </si>
@@ -13643,9 +13643,6 @@
   </si>
   <si>
     <t>03335760607</t>
-  </si>
-  <si>
-    <t>zain</t>
   </si>
 </sst>
 </file>
@@ -29132,7 +29129,7 @@
   <dimension ref="A1:T357"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="A355" sqref="A355"/>
+      <selection activeCell="A356" sqref="A356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34185,11 +34182,6 @@
       </c>
       <c r="F354" s="8">
         <v>3365304169</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A355" t="s">
-        <v>4537</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.35">
